--- a/ordersList.xlsx
+++ b/ordersList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kane\Documents\LinkedInラーニング\Level UP Python\prg\chap3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linkedin\Documents\Level UP\prg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE20D02-8CFB-406C-88AF-58964FCB8209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B37BFD-3266-4139-9E56-4639B085CE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="30" windowWidth="23790" windowHeight="16170" xr2:uid="{D8E15C65-0422-4220-A35F-F96750A3B885}"/>
+    <workbookView xWindow="27615" yWindow="525" windowWidth="19170" windowHeight="10770" xr2:uid="{D8E15C65-0422-4220-A35F-F96750A3B885}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="51">
-  <si>
-    <t>ライトオフ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="50">
   <si>
     <t>富井</t>
   </si>
@@ -157,10 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ビックマックハウス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>荒川</t>
     <rPh sb="0" eb="2">
       <t>アラカワ</t>
@@ -231,13 +224,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ライトオフ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>伊藤商事</t>
-    <rPh sb="0" eb="4">
-      <t>イトウショウジ</t>
+    <t>ノーズライト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビックハウス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さとう商事</t>
+    <rPh sb="3" eb="5">
+      <t>ショウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -322,9 +319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,7 +359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -468,7 +465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,15 +617,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2F214D-9D06-41BF-B1F4-01936BE18DAF}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="11.375" customWidth="1"/>
     <col min="7" max="7" width="9.375" customWidth="1"/>
@@ -643,49 +640,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -699,31 +696,31 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>2001</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>10</v>
       </c>
       <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -746,31 +743,31 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>2001</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
       <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3">
         <v>120</v>
@@ -793,31 +790,31 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>2001</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
         <v>6</v>
       </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4">
         <v>150</v>
@@ -840,31 +837,31 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>2001</v>
       </c>
       <c r="F5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
         <v>8</v>
       </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5">
         <v>130</v>
@@ -887,31 +884,31 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>2001</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6">
         <v>100</v>
@@ -934,31 +931,31 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>2001</v>
       </c>
       <c r="F7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7">
         <v>10</v>
       </c>
       <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" t="s">
-        <v>5</v>
-      </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7">
         <v>120</v>
@@ -981,31 +978,31 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>2001</v>
       </c>
       <c r="F8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" t="s">
-        <v>7</v>
-      </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8">
         <v>150</v>
@@ -1028,31 +1025,31 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>2001</v>
       </c>
       <c r="F9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
       <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" t="s">
-        <v>9</v>
-      </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9">
         <v>130</v>
@@ -1075,31 +1072,31 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>2001</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10">
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10">
         <v>100</v>
@@ -1122,31 +1119,31 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>2001</v>
       </c>
       <c r="F11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>2</v>
       </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11">
         <v>100</v>
@@ -1169,31 +1166,31 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>2001</v>
       </c>
       <c r="F12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
       <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
         <v>4</v>
       </c>
-      <c r="K12" t="s">
-        <v>5</v>
-      </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12">
         <v>120</v>
@@ -1216,31 +1213,31 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2">
         <v>2002</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M13">
         <v>100</v>
@@ -1263,31 +1260,31 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2">
         <v>2002</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14">
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M14">
         <v>110</v>
@@ -1310,31 +1307,31 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2">
         <v>2002</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15">
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15">
         <v>120</v>
@@ -1357,31 +1354,31 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2">
         <v>2002</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16">
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M16">
         <v>200</v>
@@ -1404,31 +1401,31 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2">
         <v>2002</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17">
         <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M17">
         <v>250</v>
@@ -1451,31 +1448,31 @@
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2">
         <v>2002</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18">
         <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18">
         <v>200</v>
@@ -1498,31 +1495,31 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2">
         <v>2003</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19">
         <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -1545,31 +1542,31 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>2001</v>
       </c>
       <c r="F20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
         <v>2</v>
       </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M20">
         <v>100</v>
@@ -1592,31 +1589,31 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <v>2001</v>
       </c>
       <c r="F21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21">
         <v>10</v>
       </c>
       <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
         <v>4</v>
       </c>
-      <c r="K21" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M21">
         <v>120</v>
@@ -1639,31 +1636,31 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>2001</v>
       </c>
       <c r="F22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
         <v>6</v>
       </c>
-      <c r="K22" t="s">
-        <v>7</v>
-      </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M22">
         <v>150</v>
@@ -1686,31 +1683,31 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>2001</v>
       </c>
       <c r="F23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23">
         <v>10</v>
       </c>
       <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
         <v>8</v>
       </c>
-      <c r="K23" t="s">
-        <v>9</v>
-      </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M23">
         <v>130</v>
@@ -1733,31 +1730,31 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>2001</v>
       </c>
       <c r="F24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>5</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24">
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M24">
         <v>100</v>
@@ -1780,31 +1777,31 @@
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2">
         <v>2003</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25">
         <v>12</v>
       </c>
       <c r="J25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" t="s">
         <v>8</v>
       </c>
-      <c r="K25" t="s">
-        <v>9</v>
-      </c>
       <c r="L25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M25">
         <v>130</v>
@@ -1827,31 +1824,31 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>2001</v>
       </c>
       <c r="F26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
         <v>2</v>
       </c>
-      <c r="K26" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M26">
         <v>200</v>
@@ -1874,31 +1871,31 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>2001</v>
       </c>
       <c r="F27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27">
         <v>10</v>
       </c>
       <c r="J27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
         <v>4</v>
       </c>
-      <c r="K27" t="s">
-        <v>5</v>
-      </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M27">
         <v>120</v>
@@ -1921,31 +1918,31 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E28">
         <v>2001</v>
       </c>
       <c r="F28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28">
         <v>10</v>
       </c>
       <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
         <v>2</v>
       </c>
-      <c r="K28" t="s">
-        <v>3</v>
-      </c>
       <c r="L28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M28">
         <v>100</v>
@@ -1968,31 +1965,31 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E29">
         <v>2001</v>
       </c>
       <c r="F29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" t="s">
         <v>4</v>
       </c>
-      <c r="K29" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M29">
         <v>120</v>
@@ -2015,31 +2012,31 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30">
         <v>2001</v>
       </c>
       <c r="F30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30">
         <v>10</v>
       </c>
       <c r="J30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
         <v>6</v>
       </c>
-      <c r="K30" t="s">
-        <v>7</v>
-      </c>
       <c r="L30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M30">
         <v>150</v>
@@ -2062,31 +2059,31 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>2001</v>
       </c>
       <c r="F31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31">
         <v>10</v>
       </c>
       <c r="J31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" t="s">
         <v>8</v>
       </c>
-      <c r="K31" t="s">
-        <v>9</v>
-      </c>
       <c r="L31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M31">
         <v>130</v>
@@ -2101,6 +2098,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>